--- a/Datos_sal/estructura_errores_mod1.xlsx
+++ b/Datos_sal/estructura_errores_mod1.xlsx
@@ -419,595 +419,595 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00273822274555258</v>
+        <v>0.000168894302993827</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00836945155692612</v>
+        <v>0.00195936044226156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0157298051529983</v>
+        <v>0.00466532218596389</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0231755971886715</v>
+        <v>0.00702293731362239</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0289670890951686</v>
+        <v>0.00856029066093903</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0336123714941362</v>
+        <v>0.0104675215553273</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0370401429687311</v>
+        <v>0.0125351872339614</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0396585875064022</v>
+        <v>0.0155007238767398</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0422073533899378</v>
+        <v>0.0193428339687708</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0449432169706094</v>
+        <v>0.0229369923545958</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0476635914736993</v>
+        <v>0.0263236012926186</v>
       </c>
       <c r="L2" t="n">
-        <v>0.050065905912034</v>
+        <v>0.0293301372184897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00631799870953387</v>
+        <v>0.00308963739616441</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0130690720442359</v>
+        <v>0.00609154701822014</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0197271206397617</v>
+        <v>0.00854808528826605</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0245330981182369</v>
+        <v>0.0100646642824376</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0282536255761724</v>
+        <v>0.0120039410870029</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0308198177225313</v>
+        <v>0.0141125299186969</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0326746582978518</v>
+        <v>0.0171675226292971</v>
       </c>
       <c r="H3" t="n">
-        <v>0.034587125481947</v>
+        <v>0.0211281524767944</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0368058852244929</v>
+        <v>0.0248086275856852</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0390897577186504</v>
+        <v>0.0282582129813217</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0410972630874997</v>
+        <v>0.0313026578880072</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0431986819379856</v>
+        <v>0.0340365679057244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.00544033119487342</v>
+        <v>0.00213448800127303</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00943473492462072</v>
+        <v>0.0030990025548629</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0115578634016868</v>
+        <v>0.00327002746927913</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0129822666025221</v>
+        <v>0.0042138669481561</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0135604853875591</v>
+        <v>0.00554978676786286</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0137287338382595</v>
+        <v>0.00822851088280566</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0141889999721048</v>
+        <v>0.0119977363870131</v>
       </c>
       <c r="H4" t="n">
-        <v>0.015189545371934</v>
+        <v>0.0153166515318061</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0164509207918721</v>
+        <v>0.01838200447226</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0175453881077071</v>
+        <v>0.0210269753861671</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0188811011130945</v>
+        <v>0.0233804772423839</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0203951561040163</v>
+        <v>0.0253842126988021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.00178372127669313</v>
+        <v>0.000258527145586385</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00129210774419002</v>
+        <v>0.00148837240581924</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00132750312894588</v>
+        <v>0.00128086934320029</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00275858675544843</v>
+        <v>0.00125100359818044</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00448080870390721</v>
+        <v>0.00337198997451308</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0052439027121666</v>
+        <v>0.00689281851646095</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00525590671842474</v>
+        <v>0.00976195838470019</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00503959321964278</v>
+        <v>0.0124106585795832</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00485532430514585</v>
+        <v>0.0146567137602003</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00460621579374783</v>
+        <v>0.0166510432888408</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00448418156081033</v>
+        <v>0.0183210385429129</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00515306103165092</v>
+        <v>0.0195049661484962</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.00307106158680437</v>
+        <v>0.00159132413079721</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00495521388261795</v>
+        <v>0.00112525298711098</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00758730701805105</v>
+        <v>0.00147709191948516</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0101453335526252</v>
+        <v>0.00423801988727446</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0115437154461162</v>
+        <v>0.00816522500253734</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0119724461052447</v>
+        <v>0.0112637750194319</v>
       </c>
       <c r="G6" t="n">
-        <v>0.012017264879722</v>
+        <v>0.0140654394694266</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0120936777072638</v>
+        <v>0.0164075356394216</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0118858433397241</v>
+        <v>0.0184660147201351</v>
       </c>
       <c r="J6" t="n">
-        <v>0.011510768218091</v>
+        <v>0.0201743503069413</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0109770867129046</v>
+        <v>0.0213709807956511</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0107494918927835</v>
+        <v>0.0224975781967052</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.000326058308433907</v>
+        <v>0.00304906856854359</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00190748806868047</v>
+        <v>0.00492141360594618</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00327253599999551</v>
+        <v>0.00865927629341475</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00341382925539716</v>
+        <v>0.0133667499452153</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00305857173446028</v>
+        <v>0.0170705019881673</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00295469410453448</v>
+        <v>0.0203377025321152</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00295655051629819</v>
+        <v>0.0230445266622085</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00354764756538218</v>
+        <v>0.0253968449994093</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00464515020978156</v>
+        <v>0.0273435836315193</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00690232618029076</v>
+        <v>0.0287297028395091</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0101739990115001</v>
+        <v>0.0300186637727774</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0132241626046706</v>
+        <v>0.0308782520494861</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.00205165559055853</v>
+        <v>0.000417279035482387</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00324741856573528</v>
+        <v>0.00367999844192774</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0030832727823444</v>
+        <v>0.00766544102921716</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00270383463312572</v>
+        <v>0.0103530508547945</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00294278219239789</v>
+        <v>0.0127225236261034</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0032441139522881</v>
+        <v>0.0146124914599678</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00422362707861256</v>
+        <v>0.016250573445635</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00562134723135617</v>
+        <v>0.017561682499703</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00813059038176395</v>
+        <v>0.0183660523077062</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0116194439985859</v>
+        <v>0.0191522427453285</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0148444387677287</v>
+        <v>0.0195589620975683</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0178876843864184</v>
+        <v>0.0201381370330262</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.000168894302993827</v>
+        <v>0.00438642506966147</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00195936044226156</v>
+        <v>0.00844045524149785</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00466532218596389</v>
+        <v>0.0108547130070656</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00702293731362239</v>
+        <v>0.0129950427360719</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00856029066093903</v>
+        <v>0.0146660950879457</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0104675215553273</v>
+        <v>0.016115364248265</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0125351872339614</v>
+        <v>0.0172532607322062</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0154913316039118</v>
+        <v>0.0178867782360055</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0193205987015719</v>
+        <v>0.0185315227726725</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0229155795273221</v>
+        <v>0.0188030303073172</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0263007608066044</v>
+        <v>0.0192741975892211</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0293189335354074</v>
+        <v>0.0201047443847868</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.00308963739616441</v>
+        <v>0.0027081187188811</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00609154701822014</v>
+        <v>0.0027701110242512</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00854808528826605</v>
+        <v>0.00307483527744122</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0100646642824376</v>
+        <v>0.00320449802154213</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0120039410870029</v>
+        <v>0.00334720435921186</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0141125299186969</v>
+        <v>0.00336741169686765</v>
       </c>
       <c r="G10" t="n">
-        <v>0.017157552710657</v>
+        <v>0.00315514708255138</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0211046895691245</v>
+        <v>0.00300849071867399</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0247861089525845</v>
+        <v>0.0028561187380671</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0282342819775867</v>
+        <v>0.00272232357294147</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0312909089843436</v>
+        <v>0.00293866351847164</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0340307694560157</v>
+        <v>0.00450401998932132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.00213448800127303</v>
+        <v>0.00235995840858028</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0030990025548629</v>
+        <v>0.00305974291756069</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00327002746927913</v>
+        <v>0.00396550755008332</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0042138669481561</v>
+        <v>0.00468387599367417</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00554978676786286</v>
+        <v>0.00546119031945916</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00821561875034738</v>
+        <v>0.0066790525817217</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0119696444573579</v>
+        <v>0.00749663764636224</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0152917234273954</v>
+        <v>0.00867036677424353</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0183564125334239</v>
+        <v>0.00925728781074532</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0210156948232686</v>
+        <v>0.00929944117457032</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0233758711348612</v>
+        <v>0.00889473227467554</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0253736146197019</v>
+        <v>0.00876201195435931</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.000258527145586385</v>
+        <v>0.000923452485141141</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00148837240581924</v>
+        <v>0.000968775642536291</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00128086934320029</v>
+        <v>0.00114246331700943</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00125100359818044</v>
+        <v>0.00114163120364033</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00335509731895569</v>
+        <v>0.00111028721916654</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00686029338391481</v>
+        <v>0.0010372367991315</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00973554474963061</v>
+        <v>0.00152546054039194</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0123842133866151</v>
+        <v>0.00149425609393288</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0146469279435494</v>
+        <v>0.00163652695965731</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0166484483365691</v>
+        <v>0.00356473942111562</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0183115196113758</v>
+        <v>0.0068908381443954</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0194889709381343</v>
+        <v>0.00960724061830813</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.00159132413079721</v>
+        <v>0.000758240260190668</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00112525298711098</v>
+        <v>0.00090910549686826</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00147709191948516</v>
+        <v>0.00131885794036515</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00421893747517119</v>
+        <v>0.00250189028000069</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00812950867999316</v>
+        <v>0.00297332189865942</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0112349997160626</v>
+        <v>0.00402042997220463</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0140369345024525</v>
+        <v>0.004285182949799</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0163968045207096</v>
+        <v>0.00407355511882347</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0184629319001787</v>
+        <v>0.00424832356907521</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02016413067226</v>
+        <v>0.00623976456325654</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0213540920156597</v>
+        <v>0.00831772323724421</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0224767382369207</v>
+        <v>0.0106731793709106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.00304906856854359</v>
+        <v>0.00041408374922991</v>
       </c>
       <c r="B14" t="n">
-        <v>0.00492141360594618</v>
+        <v>0.000307132649023268</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0086390317871774</v>
+        <v>0.00116616086340742</v>
       </c>
       <c r="D14" t="n">
-        <v>0.013328195023507</v>
+        <v>0.00126670415076534</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0170389187356215</v>
+        <v>0.00216389064298635</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0203066572379662</v>
+        <v>0.00217648812058101</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0230318698631627</v>
+        <v>0.00209515682299753</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0253922798786786</v>
+        <v>0.00378842695778932</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0273320020365163</v>
+        <v>0.00724522259419792</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0287114935340745</v>
+        <v>0.0100590997536929</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0299965782324228</v>
+        <v>0.0129063472502608</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0311879126472564</v>
+        <v>0.0152571008936402</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.000417279035482387</v>
+        <v>0.000663702982715897</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00365158016591988</v>
+        <v>0.00222608838266986</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00761881929450876</v>
+        <v>0.00246462814532986</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0103180819645661</v>
+        <v>0.00355172178717812</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0126891022745793</v>
+        <v>0.00363588517422753</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0146006524305595</v>
+        <v>0.00332176991580359</v>
       </c>
       <c r="G15" t="n">
-        <v>0.016247741752457</v>
+        <v>0.00411177902944942</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0175505673546236</v>
+        <v>0.00710013790623454</v>
       </c>
       <c r="I15" t="n">
-        <v>0.018347728236472</v>
+        <v>0.00971670755501868</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0191296236948524</v>
+        <v>0.0124568487239405</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0198815793503381</v>
+        <v>0.0147147955316703</v>
       </c>
       <c r="L15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.00434613959370811</v>
+        <v>0.00180708701790078</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00838356619622617</v>
+        <v>0.00150161752170172</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0108146790700291</v>
+        <v>0.00236860372900485</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0129579774930532</v>
+        <v>0.00217859102174147</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0146534863420338</v>
+        <v>0.00222769112309553</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0161126224507084</v>
+        <v>0.00462247291084334</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0172416223876044</v>
+        <v>0.00868341370548235</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0178675774693927</v>
+        <v>0.0118412608878156</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0185078963764603</v>
+        <v>0.0149526772372857</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0191401165306141</v>
+        <v>0.0174692021575931</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.00271454065079446</v>
+        <v>0.00234572251214971</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00281639954847137</v>
+        <v>0.00189452237371027</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00314125781990103</v>
+        <v>0.00298121150786953</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00330921809070021</v>
+        <v>0.00525848759390445</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00347356724195447</v>
+        <v>0.00916976750898478</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00349513096507309</v>
+        <v>0.0141622525103037</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00327976637531134</v>
+        <v>0.0180448528607005</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00313324634416636</v>
+        <v>0.0217121181467852</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00304583825726666</v>
+        <v>0.0246703067965552</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -1015,28 +1015,28 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.00228770849246551</v>
+        <v>0.00319261839024598</v>
       </c>
       <c r="B18" t="n">
-        <v>0.00298322423674336</v>
+        <v>0.00259735090163035</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00384456610887219</v>
+        <v>0.00229950283528988</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00454780747355286</v>
+        <v>0.00485547378713808</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00533850567484739</v>
+        <v>0.00928248049945745</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00656924286481714</v>
+        <v>0.0124819581402917</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00738925840371693</v>
+        <v>0.0155943249543359</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00797635904235091</v>
+        <v>0.0180206614633209</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -1045,25 +1045,25 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.000865317918959718</v>
+        <v>0.00427110743552461</v>
       </c>
       <c r="B19" t="n">
-        <v>0.000933820538848611</v>
+        <v>0.00768053237826407</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0010960442758827</v>
+        <v>0.0127297348157325</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00106589187549118</v>
+        <v>0.0186826203349196</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00108884551393026</v>
+        <v>0.023039558884586</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0010401251828511</v>
+        <v>0.0270501338738557</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000970639520369066</v>
+        <v>0.0301984090715587</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -1073,22 +1073,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.00066403773963053</v>
+        <v>0.0018749818068402</v>
       </c>
       <c r="B20" t="n">
-        <v>0.000820699214637748</v>
+        <v>0.00576251018138595</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00127228193872065</v>
+        <v>0.0105610116656644</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00248002430322816</v>
+        <v>0.0134249180764707</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00295299668993614</v>
+        <v>0.0161757619225038</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00319602730970306</v>
+        <v>0.018167288901964</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -1099,19 +1099,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.000321074581882463</v>
+        <v>0.00437133199853168</v>
       </c>
       <c r="B21" t="n">
-        <v>0.000238177599661933</v>
+        <v>0.00865512169017708</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00132401908512517</v>
+        <v>0.0105655760518433</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00147605651220326</v>
+        <v>0.0125913997068072</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00146992015089724</v>
+        <v>0.0139168119951123</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -1123,16 +1123,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.000718590008587761</v>
+        <v>0.00311305415764807</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00226822492821358</v>
+        <v>0.00262315077351242</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00250104144117042</v>
+        <v>0.00278000762190523</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0025395969044479</v>
+        <v>0.00259431520233616</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -1145,13 +1145,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.00174966635899487</v>
+        <v>0.0039463621383149</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00142361314278237</v>
+        <v>0.00466214897469657</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00117579155707738</v>
+        <v>0.00614717109217871</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.00235686903163312</v>
+        <v>0.00228738196520517</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00350276522595251</v>
+        <v>0.00225547661778539</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.000146039403080778</v>
+        <v>0.00211902574229317</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>

--- a/Datos_sal/estructura_errores_mod1.xlsx
+++ b/Datos_sal/estructura_errores_mod1.xlsx
@@ -419,595 +419,595 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.000168894302993827</v>
+        <v>0.000180381901313531</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00195936044226156</v>
+        <v>0.00202646505103288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00466532218596389</v>
+        <v>0.00282783521043485</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00702293731362239</v>
+        <v>0.00298132524244602</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00856029066093903</v>
+        <v>0.0030861386483235</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0104675215553273</v>
+        <v>0.00305836028205187</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0125351872339614</v>
+        <v>0.00299568485409739</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0155007238767398</v>
+        <v>0.00288788323278704</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0193428339687708</v>
+        <v>0.0029699106583921</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0229369923545958</v>
+        <v>0.00393124807413163</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0263236012926186</v>
+        <v>0.00495386842668284</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0293301372184897</v>
+        <v>0.00630440130243923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00308963739616441</v>
+        <v>0.000668304945679488</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00609154701822014</v>
+        <v>0.00179887328962021</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00854808528826605</v>
+        <v>0.00450723029236909</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0100646642824376</v>
+        <v>0.00577982155150165</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0120039410870029</v>
+        <v>0.00661684734541012</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0141125299186969</v>
+        <v>0.00688989949193351</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0171675226292971</v>
+        <v>0.00685754729176655</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0211281524767944</v>
+        <v>0.00656520033955415</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0248086275856852</v>
+        <v>0.0062000497547292</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0282582129813217</v>
+        <v>0.00601138061648165</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0313026578880072</v>
+        <v>0.00648197264228069</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0340365679057244</v>
+        <v>0.00710033568228292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.00213448800127303</v>
+        <v>0.00362097285396867</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0030990025548629</v>
+        <v>0.00669633822611369</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00327002746927913</v>
+        <v>0.00790639217994997</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0042138669481561</v>
+        <v>0.0086346801410224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00554978676786286</v>
+        <v>0.00875732651170694</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00822851088280566</v>
+        <v>0.00858073486317134</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0119977363870131</v>
+        <v>0.00814887091239454</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0153166515318061</v>
+        <v>0.00762382637705408</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01838200447226</v>
+        <v>0.00727776724187815</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0210269753861671</v>
+        <v>0.00755158189880095</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0233804772423839</v>
+        <v>0.00802179536531146</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0253842126988021</v>
+        <v>0.00843252399589791</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.000258527145586385</v>
+        <v>0.00222208090089993</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00148837240581924</v>
+        <v>0.00198832872418692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00128086934320029</v>
+        <v>0.00187962736755257</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00125100359818044</v>
+        <v>0.0016307441038607</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00337198997451308</v>
+        <v>0.00159585582949227</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00689281851646095</v>
+        <v>0.00229592863351751</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00976195838470019</v>
+        <v>0.00416891122526757</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0124106585795832</v>
+        <v>0.00588913972936315</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0146567137602003</v>
+        <v>0.00836865631176685</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0166510432888408</v>
+        <v>0.0103286146481506</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0183210385429129</v>
+        <v>0.0117492362698209</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0195049661484962</v>
+        <v>0.0123648123026585</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.00159132413079721</v>
+        <v>0.00254775621877279</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00112525298711098</v>
+        <v>0.00326746152119006</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00147709191948516</v>
+        <v>0.00379947483457112</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00423801988727446</v>
+        <v>0.00404817982250153</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00816522500253734</v>
+        <v>0.00430491681395852</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0112637750194319</v>
+        <v>0.00493814770243131</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0140654394694266</v>
+        <v>0.00536901572958919</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0164075356394216</v>
+        <v>0.00650470712950334</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0184660147201351</v>
+        <v>0.00737992660640754</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0201743503069413</v>
+        <v>0.00792000404753205</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0213709807956511</v>
+        <v>0.00790966279725464</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0224975781967052</v>
+        <v>0.00759036333596649</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.00304906856854359</v>
+        <v>0.00054319070712161</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00492141360594618</v>
+        <v>0.000497314088401135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00865927629341475</v>
+        <v>0.00128007060736738</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0133667499452153</v>
+        <v>0.00282281644559549</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0170705019881673</v>
+        <v>0.00535307061564333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0203377025321152</v>
+        <v>0.0074407486856341</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0230445266622085</v>
+        <v>0.0103275814820374</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0253968449994093</v>
+        <v>0.0125506899772611</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0273435836315193</v>
+        <v>0.0141464223719995</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0287297028395091</v>
+        <v>0.014858881927461</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0300186637727774</v>
+        <v>0.0148732249325642</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0308782520494861</v>
+        <v>0.0149188592574019</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.000417279035482387</v>
+        <v>0.00156592066703887</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00367999844192774</v>
+        <v>0.00270845790906021</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00766544102921716</v>
+        <v>0.00444724413097699</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0103530508547945</v>
+        <v>0.00719209029255016</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0127225236261034</v>
+        <v>0.00942950593137015</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0146124914599678</v>
+        <v>0.0124477919766737</v>
       </c>
       <c r="G8" t="n">
-        <v>0.016250573445635</v>
+        <v>0.014763537492099</v>
       </c>
       <c r="H8" t="n">
-        <v>0.017561682499703</v>
+        <v>0.0164136051836574</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0183660523077062</v>
+        <v>0.0171110329389953</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0191522427453285</v>
+        <v>0.0170778516352685</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0195589620975683</v>
+        <v>0.0170902796804482</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0201381370330262</v>
+        <v>0.0170502601973408</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.00438642506966147</v>
+        <v>0.00043885034746971</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00844045524149785</v>
+        <v>0.00183939460703719</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0108547130070656</v>
+        <v>0.00449527559480983</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0129950427360719</v>
+        <v>0.00637778259189354</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0146660950879457</v>
+        <v>0.0092396326888571</v>
       </c>
       <c r="F9" t="n">
-        <v>0.016115364248265</v>
+        <v>0.0112413897940532</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0172532607322062</v>
+        <v>0.012525109283382</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0178867782360055</v>
+        <v>0.0128307817181426</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0185315227726725</v>
+        <v>0.0124827074844336</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0188030303073172</v>
+        <v>0.012197329497849</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0192741975892211</v>
+        <v>0.0118900548865487</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0201047443847868</v>
+        <v>0.0117665838391631</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0027081187188811</v>
+        <v>0.00187190423219707</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0027701110242512</v>
+        <v>0.00487992664692627</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00307483527744122</v>
+        <v>0.00680670985297365</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00320449802154213</v>
+        <v>0.00994251575377175</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00334720435921186</v>
+        <v>0.0120813123490909</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00336741169686765</v>
+        <v>0.0134590533430708</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00315514708255138</v>
+        <v>0.0137972119855614</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00300849071867399</v>
+        <v>0.0134284447377566</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0028561187380671</v>
+        <v>0.0131660410075745</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00272232357294147</v>
+        <v>0.0128965887153549</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00293866351847164</v>
+        <v>0.0128710263140479</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00450401998932132</v>
+        <v>0.0132654339520382</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.00235995840858028</v>
+        <v>0.00326073619670364</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00305974291756069</v>
+        <v>0.00442864254431445</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00396550755008332</v>
+        <v>0.00745540317367581</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00468387599367417</v>
+        <v>0.00927506466864859</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00546119031945916</v>
+        <v>0.0103279725968415</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0066790525817217</v>
+        <v>0.0103430428790442</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00749663764636224</v>
+        <v>0.00977526439376639</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00867036677424353</v>
+        <v>0.00934805094269594</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00925728781074532</v>
+        <v>0.00895633126316519</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00929944117457032</v>
+        <v>0.00879584949550368</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00889473227467554</v>
+        <v>0.00906284625012403</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00876201195435931</v>
+        <v>0.00956906819057357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.000923452485141141</v>
+        <v>0.000614631912208452</v>
       </c>
       <c r="B12" t="n">
-        <v>0.000968775642536291</v>
+        <v>0.00280199229229439</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00114246331700943</v>
+        <v>0.00379585322807914</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00114163120364033</v>
+        <v>0.00424277821281329</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00111028721916654</v>
+        <v>0.00389566353102705</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0010372367991315</v>
+        <v>0.00382769585201196</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00152546054039194</v>
+        <v>0.00376663859902029</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00149425609393288</v>
+        <v>0.00384446597619</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00163652695965731</v>
+        <v>0.00369828284973274</v>
       </c>
       <c r="J12" t="n">
-        <v>0.00356473942111562</v>
+        <v>0.00356103978318111</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0068908381443954</v>
+        <v>0.00363497225993592</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00960724061830813</v>
+        <v>0.00416878120389194</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.000758240260190668</v>
+        <v>0.00485881825032308</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00090910549686826</v>
+        <v>0.00565197478074263</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00131885794036515</v>
+        <v>0.00593311115153079</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00250189028000069</v>
+        <v>0.00533485500451292</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00297332189865942</v>
+        <v>0.00491348713516027</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00402042997220463</v>
+        <v>0.00460720947783089</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004285182949799</v>
+        <v>0.00447394023677111</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00407355511882347</v>
+        <v>0.00421602365009811</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00424832356907521</v>
+        <v>0.00405944761435302</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00623976456325654</v>
+        <v>0.00413670286088756</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00831772323724421</v>
+        <v>0.00468410349962178</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0106731793709106</v>
+        <v>0.00539009215060856</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.00041408374922991</v>
+        <v>0.00276185259355888</v>
       </c>
       <c r="B14" t="n">
-        <v>0.000307132649023268</v>
+        <v>0.00420391775995543</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00116616086340742</v>
+        <v>0.00689511046297617</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00126670415076534</v>
+        <v>0.0102476853899128</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00216389064298635</v>
+        <v>0.011907035085175</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00217648812058101</v>
+        <v>0.0132275892111421</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00209515682299753</v>
+        <v>0.0137872377364079</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00378842695778932</v>
+        <v>0.013725378151362</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00724522259419792</v>
+        <v>0.0134884678803199</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0100590997536929</v>
+        <v>0.0130696641458353</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0129063472502608</v>
+        <v>0.0126362546007619</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0152571008936402</v>
+        <v>0.0121601820369854</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.000663702982715897</v>
+        <v>0.000181477450783341</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00222608838266986</v>
+        <v>0.00253871697891218</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00246462814532986</v>
+        <v>0.00562880214420549</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00355172178717812</v>
+        <v>0.00666112731115839</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00363588517422753</v>
+        <v>0.0075091245274166</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00332176991580359</v>
+        <v>0.0076379682358312</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00411177902944942</v>
+        <v>0.00726610956218062</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00710013790623454</v>
+        <v>0.0068442537168651</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00971670755501868</v>
+        <v>0.00646418318748947</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0124568487239405</v>
+        <v>0.00620479019597399</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0147147955316703</v>
+        <v>0.00618129041533033</v>
       </c>
       <c r="L15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.00180708701790078</v>
+        <v>0.00356062497141529</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00150161752170172</v>
+        <v>0.00690756920212721</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00236860372900485</v>
+        <v>0.0077911950172133</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00217859102174147</v>
+        <v>0.0085862629009385</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00222769112309553</v>
+        <v>0.00864528144771831</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00462247291084334</v>
+        <v>0.00818390322065299</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00868341370548235</v>
+        <v>0.00768571502177554</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0118412608878156</v>
+        <v>0.00718966277794134</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0149526772372857</v>
+        <v>0.00679407783334296</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0174692021575931</v>
+        <v>0.00657778430539083</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.00234572251214971</v>
+        <v>0.00243179312833242</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00189452237371027</v>
+        <v>0.00178087060698805</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00298121150786953</v>
+        <v>0.0015434305732571</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00525848759390445</v>
+        <v>0.00153128225928245</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00916976750898478</v>
+        <v>0.00268211989224787</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0141622525103037</v>
+        <v>0.003854854698073</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0180448528607005</v>
+        <v>0.00541364606121893</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0217121181467852</v>
+        <v>0.00673658854476051</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0246703067965552</v>
+        <v>0.00820883364744161</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -1015,28 +1015,28 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.00319261839024598</v>
+        <v>0.00363653410277287</v>
       </c>
       <c r="B18" t="n">
-        <v>0.00259735090163035</v>
+        <v>0.0040275990369249</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00229950283528988</v>
+        <v>0.00524251775916034</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00485547378713808</v>
+        <v>0.00712203330186178</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00928248049945745</v>
+        <v>0.00864918276896963</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0124819581402917</v>
+        <v>0.0103806357261635</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0155943249543359</v>
+        <v>0.0118372814920623</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0180206614633209</v>
+        <v>0.0133890355727637</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -1045,25 +1045,25 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.00427110743552461</v>
+        <v>0.00229038801941428</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00768053237826407</v>
+        <v>0.00186457041595478</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0127297348157325</v>
+        <v>0.00187600870927376</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0186826203349196</v>
+        <v>0.00249602363031546</v>
       </c>
       <c r="E19" t="n">
-        <v>0.023039558884586</v>
+        <v>0.00390217264997264</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0270501338738557</v>
+        <v>0.00510556247736726</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0301984090715587</v>
+        <v>0.0065338349648175</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -1073,22 +1073,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0018749818068402</v>
+        <v>0.00289287928538506</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00576251018138595</v>
+        <v>0.00547995357060707</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0105610116656644</v>
+        <v>0.00710931106184179</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0134249180764707</v>
+        <v>0.00901218328811792</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0161757619225038</v>
+        <v>0.0105009786811724</v>
       </c>
       <c r="F20" t="n">
-        <v>0.018167288901964</v>
+        <v>0.0121014854402187</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -1099,19 +1099,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.00437133199853168</v>
+        <v>0.00193271564719311</v>
       </c>
       <c r="B21" t="n">
-        <v>0.00865512169017708</v>
+        <v>0.00249555092316173</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0105655760518433</v>
+        <v>0.00395846175475973</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0125913997068072</v>
+        <v>0.00506515893075026</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0139168119951123</v>
+        <v>0.00646325464058241</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -1123,16 +1123,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.00311305415764807</v>
+        <v>0.000460042284140094</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00262315077351242</v>
+        <v>0.0012752926844503</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00278000762190523</v>
+        <v>0.00204335883363688</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00259431520233616</v>
+        <v>0.00344405149113161</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -1145,13 +1145,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.0039463621383149</v>
+        <v>0.00252358987533086</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00466214897469657</v>
+        <v>0.00338151817296153</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00614717109217871</v>
+        <v>0.00487690211222989</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.00228738196520517</v>
+        <v>0.000619765952155404</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00225547661778539</v>
+        <v>0.000905708615045294</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.00211902574229317</v>
+        <v>0.00220995805780966</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
